--- a/query_comparison.xlsx
+++ b/query_comparison.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27870" yWindow="1065" windowWidth="27840" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Query Comparison" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +415,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.7109375" customWidth="1" min="1" max="1"/>
+    <col width="22.85546875" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="15.5703125" customWidth="1" min="4" max="4"/>
+    <col width="13.7109375" customWidth="1" min="5" max="5"/>
+    <col width="14.140625" customWidth="1" min="6" max="6"/>
+    <col width="17.85546875" customWidth="1" min="7" max="7"/>
+    <col width="11.85546875" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -469,210 +481,287 @@
           <t>ClickHouse</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1.70056676864624</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1.308</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.0009977817535400391</v>
       </c>
       <c r="D2" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="E2" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
-        <v>54.8</v>
+        <v>52</v>
       </c>
       <c r="G2" t="n">
-        <v>55.7</v>
+        <v>53.5</v>
       </c>
       <c r="H2" t="n">
-        <v>604593</v>
+        <v>638370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>ClickHouse</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7382409572601318</v>
+        <v>0.07254672050476074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02934598922729492</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="F3" t="n">
-        <v>55.5</v>
+        <v>51.6</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>51.5</v>
       </c>
       <c r="H3" t="n">
-        <v>604593</v>
+        <v>89884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ClickHouse</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+          <t>zwykle</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0009992122650146484</v>
+        <v>2.397589206695557</v>
       </c>
       <c r="D4" t="n">
-        <v>7.9</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="F4" t="n">
-        <v>56.5</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>56.5</v>
+        <v>49.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>638370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>zwykle</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03100109100341797</v>
+        <v>0.06405472755432129</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>0.001000642776489258</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="F5" t="n">
-        <v>56.6</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
-        <v>56.6</v>
+        <v>51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ClickHouse</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+          <t>zwykle</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.001000165939331055</v>
+        <v>1.385796308517456</v>
       </c>
       <c r="D6" t="n">
-        <v>2.9</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="E6" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="F6" t="n">
-        <v>57.1</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>57.2</v>
+        <v>51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2067996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+          <t>grupowanie</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06100726127624512</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.03122186660766602</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F7" t="n">
         <v>6.1</v>
       </c>
-      <c r="E7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>57.1</v>
-      </c>
       <c r="G7" t="n">
-        <v>57.1</v>
+        <v>52.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ClickHouse</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.861976385116577</v>
+          <t>grupowanie</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001002788543701172</v>
+        <v>0.0545501708984375</v>
       </c>
       <c r="D8" t="n">
-        <v>7.4</v>
+        <v>0.001001358032226562</v>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F8" t="n">
-        <v>57.1</v>
+        <v>3.9</v>
       </c>
       <c r="G8" t="n">
-        <v>58.6</v>
+        <v>52.3</v>
       </c>
       <c r="H8" t="n">
-        <v>604593</v>
+        <v>52.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.7589523792266846</v>
+          <t>grupowanie</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.03314566612243652</v>
+        <v>0.04800081253051758</v>
       </c>
       <c r="D9" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="F9" t="n">
-        <v>58</v>
+        <v>7.4</v>
       </c>
       <c r="G9" t="n">
-        <v>59.3</v>
+        <v>52.4</v>
       </c>
       <c r="H9" t="n">
-        <v>604593</v>
+        <v>54.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>joiny</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8.783845663070679</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5819079</v>
       </c>
     </row>
   </sheetData>

--- a/query_comparison.xlsx
+++ b/query_comparison.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27870" yWindow="1065" windowWidth="27840" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Query Comparison" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,14 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,61 +413,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="22.85546875" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15.5703125" customWidth="1" min="4" max="4"/>
-    <col width="13.7109375" customWidth="1" min="5" max="5"/>
-    <col width="14.140625" customWidth="1" min="6" max="6"/>
-    <col width="17.85546875" customWidth="1" min="7" max="7"/>
-    <col width="11.85546875" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Execution Time (s)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Connection Time (s)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>CPU Before (%)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>CPU After (%)</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Memory Before (%)</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Memory After (%)</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Result Rows</t>
         </is>
@@ -478,58 +471,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ClickHouse</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>1.308</t>
+          <t>zwykle</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0009977817535400391</v>
+        <v>3.520658731460571</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6</v>
+        <v>18.2</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>53.5</v>
+        <v>51.4</v>
       </c>
       <c r="H2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="I2" t="n">
         <v>638370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ClickHouse</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.07254672050476074</v>
+          <t>zwykle</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
       </c>
       <c r="C3" t="n">
+        <v>0.06524801254272461</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.5</v>
-      </c>
       <c r="E3" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="F3" t="n">
-        <v>51.6</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>51.5</v>
+        <v>52.9</v>
       </c>
       <c r="H3" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>89884</v>
       </c>
     </row>
@@ -545,31 +546,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.397589206695557</v>
+        <v>1.37255597114563</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="E4" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>49.5</v>
+        <v>52.8</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>54.2</v>
       </c>
       <c r="I4" t="n">
-        <v>638370</v>
+        <v>2067996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zwykle</t>
+          <t>grupowanie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,31 +579,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06405472755432129</v>
+        <v>0.07643985748291016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.0009980201721191406</v>
       </c>
       <c r="E5" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>13.2</v>
       </c>
       <c r="G5" t="n">
-        <v>51</v>
+        <v>54.2</v>
       </c>
       <c r="H5" t="n">
-        <v>51</v>
+        <v>54.2</v>
       </c>
       <c r="I5" t="n">
-        <v>89884</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zwykle</t>
+          <t>grupowanie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,25 +612,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.385796308517456</v>
+        <v>0.0675351619720459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="E6" t="n">
-        <v>3.1</v>
+        <v>15.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>54.3</v>
       </c>
       <c r="H6" t="n">
-        <v>52.4</v>
+        <v>54.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2067996</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7">
@@ -644,31 +645,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06100726127624512</v>
+        <v>0.07200264930725098</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.001003265380859375</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="F7" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="n">
-        <v>52.4</v>
+        <v>54.3</v>
       </c>
       <c r="H7" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>grupowanie</t>
+          <t>joiny</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -677,31 +678,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0545501708984375</v>
+        <v>8.389908075332642</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.001001596450805664</v>
       </c>
       <c r="E8" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>11.4</v>
       </c>
       <c r="G8" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
       <c r="H8" t="n">
-        <v>52.3</v>
+        <v>58.1</v>
       </c>
       <c r="I8" t="n">
-        <v>525</v>
+        <v>5819079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>grupowanie</t>
+          <t>joiny</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -710,25 +711,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04800081253051758</v>
+        <v>0.101116418838501</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="E9" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="F9" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>52.4</v>
+        <v>58.1</v>
       </c>
       <c r="H9" t="n">
-        <v>54.8</v>
+        <v>58.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>89884</v>
       </c>
     </row>
     <row r="10">
@@ -743,25 +744,124 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.783845663070679</v>
+        <v>3.475965261459351</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>61</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5332914</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>podzapytania</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5.471533536911011</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1677579</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>podzapytania</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05500435829162598</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.001000642776489258</v>
       </c>
-      <c r="E10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5819079</v>
+      <c r="E12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64</v>
+      </c>
+      <c r="H12" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>podzapytania</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ClickHouse</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05054116249084473</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
